--- a/biology/Botanique/Tilia_dasystyla/Tilia_dasystyla.xlsx
+++ b/biology/Botanique/Tilia_dasystyla/Tilia_dasystyla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tilia dasystyla, le tilleul du Caucase, est une espèce de plantes à fleurs du genre Tilia (les tilleuls) et de la famille des Malvaceae. C'est un arbre dont les feuilles sont caduques.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre adulte a une hauteur de 20–25 m. Le tronc est recouvert d'une écorce grise ou brun foncé. Sur les vieilles branches de l'écorce fissurée, les jeunes branches sont lisses. Les bourgeons sont oblongs, nus, brun foncé, de 4-5  mm de long, 2-3 mm de large. Les pétioles sont minces, nus, de 3-4 mm de long.
 L'arbre possède des feuilles de 5 à 6 cm, brillantes, dissymétriques à la base. Elles sont alternées et finement dentées.
@@ -548,7 +562,9 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une essence modérément thermophile, résistante à la sécheresse, qui préfère cepandant un climat humide et frais, et un sol légèrement acide ou légèrement alcalin.
 L'arbre se trouve dans les forêts de la ceinture de haute montagne et au milieu de chênes, hêtres et pousse parfois sur les rochers.
@@ -581,9 +597,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce contient les sous-espèces suivantes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette espèce contient les sous-espèces suivantes :
 T. dasystyla subsp. caucasica (synonymes: T. begoniifolia, T. caucasica, T. platyphyllos subsp. caucasica, T. rubra var. begoniifolia, T. rubra subsp. caucasica) - nord de l'Iran, nord-est et ouest de la Turquie, pays de Caucase et Crimée.
 T. dasystyla subsp. dasystyla - Crimée.</t>
         </is>
@@ -613,9 +631,11 @@
           <t>Hybride</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tilia × euchlora est une variété hybride probablement issue de Tilia dasystyla et Tilia cordata, d'origine non connue (pouvant être une ancienne création horticole ou d'origine sauvage, les deux espèces étant sympatriques dans l'aire de distribution naturelle de Tilia dasystyla et s'y hybridant couramment), il a été découvert en 1866 à Berlin. Cet hybride est aujourd'hui fréquemment planté comme arbre d'ornement et d'alignement en Europe. C'est cette variété qu'on nomme souvent « tilleul du Caucase » ou « tilleul de Crimée » en Europe. Il a hérité du feuillage lisse et brillant de Tilia dasystyla qui limite les attaques de pucerons et donc la production de miellat collant et salissant qui s'ensuit[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tilia × euchlora est une variété hybride probablement issue de Tilia dasystyla et Tilia cordata, d'origine non connue (pouvant être une ancienne création horticole ou d'origine sauvage, les deux espèces étant sympatriques dans l'aire de distribution naturelle de Tilia dasystyla et s'y hybridant couramment), il a été découvert en 1866 à Berlin. Cet hybride est aujourd'hui fréquemment planté comme arbre d'ornement et d'alignement en Europe. C'est cette variété qu'on nomme souvent « tilleul du Caucase » ou « tilleul de Crimée » en Europe. Il a hérité du feuillage lisse et brillant de Tilia dasystyla qui limite les attaques de pucerons et donc la production de miellat collant et salissant qui s'ensuit.
 </t>
         </is>
       </c>
